--- a/Attendance_sheet.xlsx
+++ b/Attendance_sheet.xlsx
@@ -7,6 +7,7 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Attendance_2026-02-05" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Attendance_2026-02-11" sheetId="2" r:id="rId5"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -32,6 +33,9 @@
   </x:si>
   <x:si>
     <x:t>nitya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ajay</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -435,4 +439,46 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="1">
+        <x:v>46064.9904442824</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Attendance_sheet.xlsx
+++ b/Attendance_sheet.xlsx
@@ -8,6 +8,7 @@
   <x:sheets>
     <x:sheet name="Attendance_2026-02-05" sheetId="1" r:id="rId2"/>
     <x:sheet name="Attendance_2026-02-11" sheetId="2" r:id="rId5"/>
+    <x:sheet name="Attendance_2026-02-12" sheetId="3" r:id="rId7"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -36,6 +37,9 @@
   </x:si>
   <x:si>
     <x:t>ajay</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HP_OMNIBOOK_X\swast</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -481,4 +485,46 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C2"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C2" s="1">
+        <x:v>46065.020051875</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>